--- a/7/3/Stock de valores de renta fija e intermediación financiera, según emisor y sector tenedor 2008 a 2021 - Trimestral.xlsx
+++ b/7/3/Stock de valores de renta fija e intermediación financiera, según emisor y sector tenedor 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Serie</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI53"/>
+  <dimension ref="A1:BI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10230,22 +10233,22 @@
         <v>184</v>
       </c>
       <c r="K53">
-        <v>82685</v>
+        <v>82478</v>
       </c>
       <c r="L53">
         <v>6751</v>
       </c>
       <c r="M53">
-        <v>4773</v>
+        <v>4584</v>
       </c>
       <c r="N53">
-        <v>25091</v>
+        <v>25085</v>
       </c>
       <c r="O53">
         <v>596</v>
       </c>
       <c r="P53">
-        <v>22848</v>
+        <v>22850</v>
       </c>
       <c r="Q53">
         <v>6412</v>
@@ -10254,10 +10257,10 @@
         <v>126</v>
       </c>
       <c r="S53">
-        <v>7054</v>
+        <v>7043</v>
       </c>
       <c r="T53">
-        <v>9034</v>
+        <v>9032</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -10293,7 +10296,7 @@
         <v>25</v>
       </c>
       <c r="AF53">
-        <v>58080</v>
+        <v>58069</v>
       </c>
       <c r="AG53">
         <v>334</v>
@@ -10305,7 +10308,7 @@
         <v>73</v>
       </c>
       <c r="AJ53">
-        <v>12491</v>
+        <v>12586</v>
       </c>
       <c r="AK53">
         <v>9855</v>
@@ -10317,7 +10320,7 @@
         <v>1035</v>
       </c>
       <c r="AN53">
-        <v>31355</v>
+        <v>31249</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -10380,7 +10383,192 @@
         <v>0</v>
       </c>
       <c r="BI53">
-        <v>240643</v>
+        <v>240426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>31868</v>
+      </c>
+      <c r="C54">
+        <v>17846</v>
+      </c>
+      <c r="D54">
+        <v>8131</v>
+      </c>
+      <c r="E54">
+        <v>142</v>
+      </c>
+      <c r="F54">
+        <v>3269</v>
+      </c>
+      <c r="G54">
+        <v>128</v>
+      </c>
+      <c r="H54">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>2257</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>79625</v>
+      </c>
+      <c r="L54">
+        <v>8679</v>
+      </c>
+      <c r="M54">
+        <v>4119</v>
+      </c>
+      <c r="N54">
+        <v>23726</v>
+      </c>
+      <c r="O54">
+        <v>448</v>
+      </c>
+      <c r="P54">
+        <v>20865</v>
+      </c>
+      <c r="Q54">
+        <v>6447</v>
+      </c>
+      <c r="R54">
+        <v>113</v>
+      </c>
+      <c r="S54">
+        <v>6287</v>
+      </c>
+      <c r="T54">
+        <v>8941</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>10499</v>
+      </c>
+      <c r="W54">
+        <v>447</v>
+      </c>
+      <c r="X54">
+        <v>1862</v>
+      </c>
+      <c r="Y54">
+        <v>124</v>
+      </c>
+      <c r="Z54">
+        <v>1424</v>
+      </c>
+      <c r="AA54">
+        <v>2868</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>720</v>
+      </c>
+      <c r="AD54">
+        <v>3056</v>
+      </c>
+      <c r="AE54">
+        <v>27</v>
+      </c>
+      <c r="AF54">
+        <v>58632</v>
+      </c>
+      <c r="AG54">
+        <v>401</v>
+      </c>
+      <c r="AH54">
+        <v>2992</v>
+      </c>
+      <c r="AI54">
+        <v>78</v>
+      </c>
+      <c r="AJ54">
+        <v>12446</v>
+      </c>
+      <c r="AK54">
+        <v>9740</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>1020</v>
+      </c>
+      <c r="AN54">
+        <v>31954</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>71740</v>
+      </c>
+      <c r="AQ54">
+        <v>17531</v>
+      </c>
+      <c r="AR54">
+        <v>2317</v>
+      </c>
+      <c r="AS54">
+        <v>136</v>
+      </c>
+      <c r="AT54">
+        <v>23204</v>
+      </c>
+      <c r="AU54">
+        <v>943</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>1138</v>
+      </c>
+      <c r="AX54">
+        <v>26472</v>
+      </c>
+      <c r="AY54">
+        <v>6382</v>
+      </c>
+      <c r="AZ54">
+        <v>149</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>30</v>
+      </c>
+      <c r="BE54">
+        <v>119</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>252513</v>
       </c>
     </row>
   </sheetData>
